--- a/收益数据.xlsx
+++ b/收益数据.xlsx
@@ -355,10 +355,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" defaultColWidth="10"/>
@@ -446,6 +446,22 @@
         <v>36.2</v>
       </c>
     </row>
+    <row r="11" spans="8:8">
+      <c r="A11">
+        <v>2.0210722E7</v>
+      </c>
+      <c r="B11">
+        <v>39.2</v>
+      </c>
+    </row>
+    <row r="12" spans="8:8">
+      <c r="A12">
+        <v>2.0210723E7</v>
+      </c>
+      <c r="B12">
+        <v>43.67</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/收益数据.xlsx
+++ b/收益数据.xlsx
@@ -355,10 +355,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" defaultColWidth="10"/>
@@ -462,6 +462,14 @@
         <v>43.67</v>
       </c>
     </row>
+    <row r="13" spans="8:8">
+      <c r="A13">
+        <v>2.0210726E7</v>
+      </c>
+      <c r="B13">
+        <v>43.63</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/收益数据.xlsx
+++ b/收益数据.xlsx
@@ -355,10 +355,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" defaultColWidth="10"/>
@@ -443,7 +443,7 @@
         <v>2.0210721E7</v>
       </c>
       <c r="B10">
-        <v>36.2</v>
+        <v>36.19</v>
       </c>
     </row>
     <row r="11" spans="8:8">
@@ -451,7 +451,7 @@
         <v>2.0210722E7</v>
       </c>
       <c r="B11">
-        <v>39.2</v>
+        <v>39.19</v>
       </c>
     </row>
     <row r="12" spans="8:8">
@@ -459,7 +459,7 @@
         <v>2.0210723E7</v>
       </c>
       <c r="B12">
-        <v>43.67</v>
+        <v>43.66</v>
       </c>
     </row>
     <row r="13" spans="8:8">
@@ -467,7 +467,15 @@
         <v>2.0210726E7</v>
       </c>
       <c r="B13">
-        <v>43.63</v>
+        <v>43.61</v>
+      </c>
+    </row>
+    <row r="14" spans="8:8">
+      <c r="A14">
+        <v>2.0210727E7</v>
+      </c>
+      <c r="B14">
+        <v>48.61</v>
       </c>
     </row>
   </sheetData>

--- a/收益数据.xlsx
+++ b/收益数据.xlsx
@@ -13,12 +13,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2" count="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="3" count="3">
   <si>
     <t>日期</t>
   </si>
   <si>
     <t>账户收益额</t>
+  </si>
+  <si>
+    <t>累计成本</t>
   </si>
 </sst>
 </file>
@@ -355,10 +358,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" defaultColWidth="10"/>
@@ -373,6 +376,9 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="2" spans="8:8">
       <c r="A2">
@@ -381,6 +387,9 @@
       <c r="B2">
         <v>-4.04</v>
       </c>
+      <c r="C2">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="3" spans="8:8">
       <c r="A3">
@@ -389,6 +398,9 @@
       <c r="B3">
         <v>-15.08</v>
       </c>
+      <c r="C3">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="4" spans="8:8">
       <c r="A4">
@@ -397,6 +409,9 @@
       <c r="B4">
         <v>4.92</v>
       </c>
+      <c r="C4">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="5" spans="8:8">
       <c r="A5">
@@ -405,6 +420,9 @@
       <c r="B5">
         <v>-12.08</v>
       </c>
+      <c r="C5">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="6" spans="8:8">
       <c r="A6">
@@ -413,6 +431,9 @@
       <c r="B6">
         <v>-10.08</v>
       </c>
+      <c r="C6">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="7" spans="8:8">
       <c r="A7">
@@ -421,6 +442,9 @@
       <c r="B7">
         <v>24.11</v>
       </c>
+      <c r="C7">
+        <v>0.89</v>
+      </c>
     </row>
     <row r="8" spans="8:8">
       <c r="A8">
@@ -429,6 +453,9 @@
       <c r="B8">
         <v>21.07</v>
       </c>
+      <c r="C8">
+        <v>0.93</v>
+      </c>
     </row>
     <row r="9" spans="8:8">
       <c r="A9">
@@ -437,6 +464,9 @@
       <c r="B9">
         <v>18.07</v>
       </c>
+      <c r="C9">
+        <v>0.93</v>
+      </c>
     </row>
     <row r="10" spans="8:8">
       <c r="A10">
@@ -445,6 +475,9 @@
       <c r="B10">
         <v>36.19</v>
       </c>
+      <c r="C10">
+        <v>1.4</v>
+      </c>
     </row>
     <row r="11" spans="8:8">
       <c r="A11">
@@ -453,6 +486,9 @@
       <c r="B11">
         <v>39.19</v>
       </c>
+      <c r="C11">
+        <v>1.4</v>
+      </c>
     </row>
     <row r="12" spans="8:8">
       <c r="A12">
@@ -461,6 +497,9 @@
       <c r="B12">
         <v>43.66</v>
       </c>
+      <c r="C12">
+        <v>1.9300000000000002</v>
+      </c>
     </row>
     <row r="13" spans="8:8">
       <c r="A13">
@@ -469,6 +508,9 @@
       <c r="B13">
         <v>43.61</v>
       </c>
+      <c r="C13">
+        <v>1.98</v>
+      </c>
     </row>
     <row r="14" spans="8:8">
       <c r="A14">
@@ -476,6 +518,31 @@
       </c>
       <c r="B14">
         <v>48.61</v>
+      </c>
+      <c r="C14">
+        <v>1.98</v>
+      </c>
+    </row>
+    <row r="15" spans="8:8">
+      <c r="A15">
+        <v>2.0210728E7</v>
+      </c>
+      <c r="B15">
+        <v>28.19</v>
+      </c>
+      <c r="C15">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="16" spans="8:8">
+      <c r="A16">
+        <v>2.0210729E7</v>
+      </c>
+      <c r="B16">
+        <v>27.13</v>
+      </c>
+      <c r="C16">
+        <v>2.46</v>
       </c>
     </row>
   </sheetData>

--- a/收益数据.xlsx
+++ b/收益数据.xlsx
@@ -358,10 +358,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" defaultColWidth="10"/>
@@ -545,6 +545,17 @@
         <v>2.46</v>
       </c>
     </row>
+    <row r="17" spans="8:8">
+      <c r="A17">
+        <v>2.0210802E7</v>
+      </c>
+      <c r="B17">
+        <v>33.53</v>
+      </c>
+      <c r="C17">
+        <v>2.46</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/收益数据.xlsx
+++ b/收益数据.xlsx
@@ -358,10 +358,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:L17"/>
+  <dimension ref="A1:P19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A4">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" defaultColWidth="10"/>
@@ -542,7 +542,7 @@
         <v>27.13</v>
       </c>
       <c r="C16">
-        <v>2.46</v>
+        <v>3.06</v>
       </c>
     </row>
     <row r="17" spans="8:8">
@@ -553,7 +553,29 @@
         <v>33.53</v>
       </c>
       <c r="C17">
-        <v>2.46</v>
+        <v>3.06</v>
+      </c>
+    </row>
+    <row r="18" spans="8:8">
+      <c r="A18">
+        <v>2.0210803E7</v>
+      </c>
+      <c r="B18">
+        <v>39.53</v>
+      </c>
+      <c r="C18">
+        <v>3.06</v>
+      </c>
+    </row>
+    <row r="19" spans="8:8">
+      <c r="A19">
+        <v>2.0210804E7</v>
+      </c>
+      <c r="B19">
+        <v>35.53</v>
+      </c>
+      <c r="C19">
+        <v>3.06</v>
       </c>
     </row>
   </sheetData>

--- a/收益数据.xlsx
+++ b/收益数据.xlsx
@@ -358,10 +358,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:P19"/>
+  <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A4">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" defaultColWidth="10"/>
@@ -578,6 +578,17 @@
         <v>3.06</v>
       </c>
     </row>
+    <row r="20" spans="8:8">
+      <c r="A20">
+        <v>2.0210805E7</v>
+      </c>
+      <c r="B20">
+        <v>24.53</v>
+      </c>
+      <c r="C20">
+        <v>3.06</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/收益数据.xlsx
+++ b/收益数据.xlsx
@@ -358,10 +358,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:Q20"/>
+  <dimension ref="A1:S22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A4">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A7">
+      <selection activeCell="B22" sqref="B22:C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" defaultColWidth="10"/>
@@ -589,6 +589,28 @@
         <v>3.06</v>
       </c>
     </row>
+    <row r="21" spans="8:8">
+      <c r="A21">
+        <v>2.0210806E7</v>
+      </c>
+      <c r="B21">
+        <v>19.53</v>
+      </c>
+      <c r="C21">
+        <v>3.06</v>
+      </c>
+    </row>
+    <row r="22" spans="8:8">
+      <c r="A22">
+        <v>2.0210809E7</v>
+      </c>
+      <c r="B22">
+        <v>24.53</v>
+      </c>
+      <c r="C22">
+        <v>3.06</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/收益数据.xlsx
+++ b/收益数据.xlsx
@@ -28,8 +28,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="2" formatCode="0.00"/>
   </numFmts>
   <fonts count="1">
     <font>
@@ -59,8 +60,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -358,10 +362,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:S22"/>
+  <dimension ref="A1:W24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A7">
-      <selection activeCell="B22" sqref="B22:C22"/>
+    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A6">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" defaultColWidth="10"/>
@@ -611,6 +615,28 @@
         <v>3.06</v>
       </c>
     </row>
+    <row r="23" spans="8:8">
+      <c r="A23">
+        <v>2.021081E7</v>
+      </c>
+      <c r="B23">
+        <v>52.64</v>
+      </c>
+      <c r="C23">
+        <v>3.95</v>
+      </c>
+    </row>
+    <row r="24" spans="8:8">
+      <c r="A24">
+        <v>2.0210811E7</v>
+      </c>
+      <c r="B24">
+        <v>51.59</v>
+      </c>
+      <c r="C24" s="1">
+        <v>4.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/收益数据.xlsx
+++ b/收益数据.xlsx
@@ -32,7 +32,11 @@
     <numFmt numFmtId="0" formatCode="General"/>
     <numFmt numFmtId="2" formatCode="0.00"/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="2">
+    <font>
+      <name val="宋体"/>
+      <sz val="11"/>
+    </font>
     <font>
       <name val="宋体"/>
       <sz val="11"/>
@@ -60,8 +64,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -362,10 +369,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:W24"/>
+  <dimension ref="A1:Y26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A6">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A10">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" defaultColWidth="10"/>
@@ -637,6 +644,28 @@
         <v>4.0</v>
       </c>
     </row>
+    <row r="25" spans="8:8">
+      <c r="A25">
+        <v>2.0210812E7</v>
+      </c>
+      <c r="B25">
+        <v>51.59</v>
+      </c>
+      <c r="C25" s="1">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="26" spans="8:8">
+      <c r="A26">
+        <v>2.0210813E7</v>
+      </c>
+      <c r="B26">
+        <v>50.59</v>
+      </c>
+      <c r="C26" s="2">
+        <v>4.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/收益数据.xlsx
+++ b/收益数据.xlsx
@@ -32,7 +32,19 @@
     <numFmt numFmtId="0" formatCode="General"/>
     <numFmt numFmtId="2" formatCode="0.00"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="5">
+    <font>
+      <name val="宋体"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="11"/>
+    </font>
     <font>
       <name val="宋体"/>
       <sz val="11"/>
@@ -64,11 +76,20 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -369,10 +390,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:Y26"/>
+  <dimension ref="A1:AC30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A10">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A14">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" defaultColWidth="10"/>
@@ -666,6 +687,50 @@
         <v>4.0</v>
       </c>
     </row>
+    <row r="27" spans="8:8">
+      <c r="A27">
+        <v>2.0210816E7</v>
+      </c>
+      <c r="B27">
+        <v>49.59</v>
+      </c>
+      <c r="C27" s="3">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="28" spans="8:8">
+      <c r="A28">
+        <v>2.0210817E7</v>
+      </c>
+      <c r="B28">
+        <v>45.59</v>
+      </c>
+      <c r="C28" s="4">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="29" spans="8:8">
+      <c r="A29">
+        <v>2.0210818E7</v>
+      </c>
+      <c r="B29">
+        <v>45.59</v>
+      </c>
+      <c r="C29" s="4">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="30" spans="8:8">
+      <c r="A30">
+        <v>2.0210819E7</v>
+      </c>
+      <c r="B30">
+        <v>39.59</v>
+      </c>
+      <c r="C30" s="5">
+        <v>4.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/收益数据.xlsx
+++ b/收益数据.xlsx
@@ -32,7 +32,15 @@
     <numFmt numFmtId="0" formatCode="General"/>
     <numFmt numFmtId="2" formatCode="0.00"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="7">
+    <font>
+      <name val="宋体"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="11"/>
+    </font>
     <font>
       <name val="宋体"/>
       <sz val="11"/>
@@ -76,7 +84,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -90,6 +98,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -390,10 +404,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AC30"/>
+  <dimension ref="A1:AE32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A14">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A17">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" defaultColWidth="10"/>
@@ -731,6 +745,28 @@
         <v>4.0</v>
       </c>
     </row>
+    <row r="31" spans="8:8">
+      <c r="A31">
+        <v>2.021082E7</v>
+      </c>
+      <c r="B31">
+        <v>42.59</v>
+      </c>
+      <c r="C31" s="6">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="32" spans="8:8">
+      <c r="A32">
+        <v>2.0210823E7</v>
+      </c>
+      <c r="B32">
+        <v>44.59</v>
+      </c>
+      <c r="C32" s="7">
+        <v>4.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/收益数据.xlsx
+++ b/收益数据.xlsx
@@ -32,7 +32,11 @@
     <numFmt numFmtId="0" formatCode="General"/>
     <numFmt numFmtId="2" formatCode="0.00"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
+    <font>
+      <name val="宋体"/>
+      <sz val="11"/>
+    </font>
     <font>
       <name val="宋体"/>
       <sz val="11"/>
@@ -106,7 +110,7 @@
     <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -404,10 +408,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AE32"/>
+  <dimension ref="A1:AF33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A17">
-      <selection activeCell="C32" sqref="C32"/>
+      <selection activeCell="B33" sqref="B33:C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" defaultColWidth="10"/>
@@ -761,9 +765,20 @@
         <v>2.0210823E7</v>
       </c>
       <c r="B32">
-        <v>44.59</v>
+        <v>43.59</v>
       </c>
       <c r="C32" s="7">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="33" spans="8:8">
+      <c r="A33">
+        <v>2.0210824E7</v>
+      </c>
+      <c r="B33">
+        <v>43.59</v>
+      </c>
+      <c r="C33" s="7">
         <v>4.0</v>
       </c>
     </row>

--- a/收益数据.xlsx
+++ b/收益数据.xlsx
@@ -32,7 +32,19 @@
     <numFmt numFmtId="0" formatCode="General"/>
     <numFmt numFmtId="2" formatCode="0.00"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="11">
+    <font>
+      <name val="宋体"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="11"/>
+    </font>
     <font>
       <name val="宋体"/>
       <sz val="11"/>
@@ -88,7 +100,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -111,6 +123,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -408,10 +432,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AF33"/>
+  <dimension ref="A1:AK38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A17">
-      <selection activeCell="B33" sqref="B33:C33"/>
+    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A22">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" defaultColWidth="10"/>
@@ -782,6 +806,61 @@
         <v>4.0</v>
       </c>
     </row>
+    <row r="34" spans="8:8">
+      <c r="A34">
+        <v>2.0210825E7</v>
+      </c>
+      <c r="B34">
+        <v>45.09</v>
+      </c>
+      <c r="C34" s="8">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="35" spans="8:8">
+      <c r="A35">
+        <v>2.0210826E7</v>
+      </c>
+      <c r="B35">
+        <v>40.09</v>
+      </c>
+      <c r="C35" s="8">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="36" spans="8:8">
+      <c r="A36">
+        <v>2.0210827E7</v>
+      </c>
+      <c r="B36">
+        <v>36.09</v>
+      </c>
+      <c r="C36" s="9">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="37" spans="8:8">
+      <c r="A37">
+        <v>2.021083E7</v>
+      </c>
+      <c r="B37">
+        <v>46.09</v>
+      </c>
+      <c r="C37" s="10">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="38" spans="8:8">
+      <c r="A38">
+        <v>2.0210831E7</v>
+      </c>
+      <c r="B38">
+        <v>44.09</v>
+      </c>
+      <c r="C38" s="11">
+        <v>4.5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/收益数据.xlsx
+++ b/收益数据.xlsx
@@ -32,7 +32,23 @@
     <numFmt numFmtId="0" formatCode="General"/>
     <numFmt numFmtId="2" formatCode="0.00"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="15">
+    <font>
+      <name val="宋体"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="11"/>
+    </font>
     <font>
       <name val="宋体"/>
       <sz val="11"/>
@@ -100,7 +116,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -132,6 +148,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -432,10 +460,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK38"/>
+  <dimension ref="A1:AO42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A22">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A27">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" defaultColWidth="10"/>
@@ -861,6 +889,50 @@
         <v>4.5</v>
       </c>
     </row>
+    <row r="39" spans="8:8">
+      <c r="A39">
+        <v>2.0210901E7</v>
+      </c>
+      <c r="B39">
+        <v>52.09</v>
+      </c>
+      <c r="C39" s="12">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="40" spans="8:8">
+      <c r="A40">
+        <v>2.0210902E7</v>
+      </c>
+      <c r="B40">
+        <v>50.09</v>
+      </c>
+      <c r="C40" s="13">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="41" spans="8:8">
+      <c r="A41">
+        <v>2.0210903E7</v>
+      </c>
+      <c r="B41">
+        <v>60.09</v>
+      </c>
+      <c r="C41" s="14">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="42" spans="8:8">
+      <c r="A42">
+        <v>2.0210906E7</v>
+      </c>
+      <c r="B42">
+        <v>57.09</v>
+      </c>
+      <c r="C42" s="15">
+        <v>4.5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/收益数据.xlsx
+++ b/收益数据.xlsx
@@ -32,7 +32,19 @@
     <numFmt numFmtId="0" formatCode="General"/>
     <numFmt numFmtId="2" formatCode="0.00"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="18">
+    <font>
+      <name val="宋体"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="11"/>
+    </font>
     <font>
       <name val="宋体"/>
       <sz val="11"/>
@@ -116,7 +128,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -162,7 +174,13 @@
     <xf numFmtId="2" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="2" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -460,10 +478,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO42"/>
+  <dimension ref="A1:AT46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A27">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A28">
+      <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" defaultColWidth="10"/>
@@ -933,6 +951,50 @@
         <v>4.5</v>
       </c>
     </row>
+    <row r="43" spans="8:8">
+      <c r="A43">
+        <v>2.0210907E7</v>
+      </c>
+      <c r="B43">
+        <v>56.09</v>
+      </c>
+      <c r="C43" s="16">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="44" spans="8:8">
+      <c r="A44">
+        <v>2.0210908E7</v>
+      </c>
+      <c r="B44">
+        <v>79.09</v>
+      </c>
+      <c r="C44" s="17">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="45" spans="8:8">
+      <c r="A45">
+        <v>2.0210909E7</v>
+      </c>
+      <c r="B45">
+        <v>72.24</v>
+      </c>
+      <c r="C45">
+        <v>5.35</v>
+      </c>
+    </row>
+    <row r="46" spans="8:8">
+      <c r="A46">
+        <v>2.021091E7</v>
+      </c>
+      <c r="B46">
+        <v>69.12</v>
+      </c>
+      <c r="C46">
+        <v>5.47</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/收益数据.xlsx
+++ b/收益数据.xlsx
@@ -32,7 +32,11 @@
     <numFmt numFmtId="0" formatCode="General"/>
     <numFmt numFmtId="2" formatCode="0.00"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="19">
+    <font>
+      <name val="宋体"/>
+      <sz val="11"/>
+    </font>
     <font>
       <name val="宋体"/>
       <sz val="11"/>
@@ -128,7 +132,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -181,6 +185,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -478,10 +485,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AT46"/>
+  <dimension ref="A1:AZ52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A28">
-      <selection activeCell="A46" sqref="A46"/>
+    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A36">
+      <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" defaultColWidth="10"/>
@@ -995,6 +1002,72 @@
         <v>5.47</v>
       </c>
     </row>
+    <row r="47" spans="8:8">
+      <c r="A47">
+        <v>2.0210913E7</v>
+      </c>
+      <c r="B47">
+        <v>90.12</v>
+      </c>
+      <c r="C47">
+        <v>5.47</v>
+      </c>
+    </row>
+    <row r="48" spans="8:8">
+      <c r="A48">
+        <v>2.0210914E7</v>
+      </c>
+      <c r="B48">
+        <v>75.12</v>
+      </c>
+      <c r="C48">
+        <v>5.47</v>
+      </c>
+    </row>
+    <row r="49" spans="8:8">
+      <c r="A49">
+        <v>2.0210915E7</v>
+      </c>
+      <c r="B49">
+        <v>81.12</v>
+      </c>
+      <c r="C49">
+        <v>5.47</v>
+      </c>
+    </row>
+    <row r="50" spans="8:8">
+      <c r="A50">
+        <v>2.0210916E7</v>
+      </c>
+      <c r="B50">
+        <v>63.79</v>
+      </c>
+      <c r="C50" s="18">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="51" spans="8:8">
+      <c r="A51">
+        <v>2.0210917E7</v>
+      </c>
+      <c r="B51">
+        <v>55.47</v>
+      </c>
+      <c r="C51">
+        <v>6.12</v>
+      </c>
+    </row>
+    <row r="52" spans="8:8">
+      <c r="A52">
+        <v>2.0210922E7</v>
+      </c>
+      <c r="B52">
+        <v>55.15</v>
+      </c>
+      <c r="C52">
+        <v>6.44</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/收益数据.xlsx
+++ b/收益数据.xlsx
@@ -32,7 +32,11 @@
     <numFmt numFmtId="0" formatCode="General"/>
     <numFmt numFmtId="2" formatCode="0.00"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="20">
+    <font>
+      <name val="宋体"/>
+      <sz val="11"/>
+    </font>
     <font>
       <name val="宋体"/>
       <sz val="11"/>
@@ -132,13 +136,16 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
@@ -188,6 +195,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -485,10 +495,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AZ52"/>
+  <dimension ref="A1:BI60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A36">
-      <selection activeCell="C52" sqref="C52"/>
+    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A45">
+      <selection activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" defaultColWidth="10"/>
@@ -509,32 +519,32 @@
     </row>
     <row r="2" spans="8:8">
       <c r="A2">
-        <v>2.0210709E7</v>
-      </c>
-      <c r="B2">
-        <v>-4.04</v>
-      </c>
-      <c r="C2">
-        <v>0.04</v>
+        <v>2.0210708E7</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0.0</v>
       </c>
     </row>
     <row r="3" spans="8:8">
       <c r="A3">
-        <v>2.0210712E7</v>
+        <v>2.0210709E7</v>
       </c>
       <c r="B3">
-        <v>-15.08</v>
+        <v>-4.04</v>
       </c>
       <c r="C3">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="4" spans="8:8">
       <c r="A4">
-        <v>2.0210713E7</v>
+        <v>2.0210712E7</v>
       </c>
       <c r="B4">
-        <v>4.92</v>
+        <v>-15.08</v>
       </c>
       <c r="C4">
         <v>0.08</v>
@@ -542,10 +552,10 @@
     </row>
     <row r="5" spans="8:8">
       <c r="A5">
-        <v>2.0210714E7</v>
+        <v>2.0210713E7</v>
       </c>
       <c r="B5">
-        <v>-12.08</v>
+        <v>4.92</v>
       </c>
       <c r="C5">
         <v>0.08</v>
@@ -553,10 +563,10 @@
     </row>
     <row r="6" spans="8:8">
       <c r="A6">
-        <v>2.0210715E7</v>
+        <v>2.0210714E7</v>
       </c>
       <c r="B6">
-        <v>-10.08</v>
+        <v>-12.08</v>
       </c>
       <c r="C6">
         <v>0.08</v>
@@ -564,32 +574,32 @@
     </row>
     <row r="7" spans="8:8">
       <c r="A7">
-        <v>2.0210716E7</v>
+        <v>2.0210715E7</v>
       </c>
       <c r="B7">
-        <v>24.11</v>
+        <v>-10.08</v>
       </c>
       <c r="C7">
-        <v>0.89</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="8" spans="8:8">
       <c r="A8">
-        <v>2.0210719E7</v>
+        <v>2.0210716E7</v>
       </c>
       <c r="B8">
-        <v>21.07</v>
+        <v>24.11</v>
       </c>
       <c r="C8">
-        <v>0.93</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="9" spans="8:8">
       <c r="A9">
-        <v>2.021072E7</v>
+        <v>2.0210719E7</v>
       </c>
       <c r="B9">
-        <v>18.07</v>
+        <v>21.07</v>
       </c>
       <c r="C9">
         <v>0.93</v>
@@ -597,21 +607,21 @@
     </row>
     <row r="10" spans="8:8">
       <c r="A10">
-        <v>2.0210721E7</v>
+        <v>2.021072E7</v>
       </c>
       <c r="B10">
-        <v>36.19</v>
+        <v>18.07</v>
       </c>
       <c r="C10">
-        <v>1.4</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="11" spans="8:8">
       <c r="A11">
-        <v>2.0210722E7</v>
+        <v>2.0210721E7</v>
       </c>
       <c r="B11">
-        <v>39.19</v>
+        <v>36.19</v>
       </c>
       <c r="C11">
         <v>1.4</v>
@@ -619,32 +629,32 @@
     </row>
     <row r="12" spans="8:8">
       <c r="A12">
-        <v>2.0210723E7</v>
+        <v>2.0210722E7</v>
       </c>
       <c r="B12">
-        <v>43.66</v>
+        <v>39.19</v>
       </c>
       <c r="C12">
-        <v>1.9300000000000002</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="13" spans="8:8">
       <c r="A13">
-        <v>2.0210726E7</v>
+        <v>2.0210723E7</v>
       </c>
       <c r="B13">
-        <v>43.61</v>
+        <v>43.66</v>
       </c>
       <c r="C13">
-        <v>1.98</v>
+        <v>1.9300000000000002</v>
       </c>
     </row>
     <row r="14" spans="8:8">
       <c r="A14">
-        <v>2.0210727E7</v>
+        <v>2.0210726E7</v>
       </c>
       <c r="B14">
-        <v>48.61</v>
+        <v>43.61</v>
       </c>
       <c r="C14">
         <v>1.98</v>
@@ -652,32 +662,32 @@
     </row>
     <row r="15" spans="8:8">
       <c r="A15">
-        <v>2.0210728E7</v>
+        <v>2.0210727E7</v>
       </c>
       <c r="B15">
-        <v>28.19</v>
+        <v>48.61</v>
       </c>
       <c r="C15">
-        <v>2.4</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="16" spans="8:8">
       <c r="A16">
-        <v>2.0210729E7</v>
+        <v>2.0210728E7</v>
       </c>
       <c r="B16">
-        <v>27.13</v>
+        <v>28.19</v>
       </c>
       <c r="C16">
-        <v>3.06</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="17" spans="8:8">
       <c r="A17">
-        <v>2.0210802E7</v>
+        <v>2.0210729E7</v>
       </c>
       <c r="B17">
-        <v>33.53</v>
+        <v>27.13</v>
       </c>
       <c r="C17">
         <v>3.06</v>
@@ -685,10 +695,10 @@
     </row>
     <row r="18" spans="8:8">
       <c r="A18">
-        <v>2.0210803E7</v>
+        <v>2.021073E7</v>
       </c>
       <c r="B18">
-        <v>39.53</v>
+        <v>38.53</v>
       </c>
       <c r="C18">
         <v>3.06</v>
@@ -696,10 +706,10 @@
     </row>
     <row r="19" spans="8:8">
       <c r="A19">
-        <v>2.0210804E7</v>
+        <v>2.0210802E7</v>
       </c>
       <c r="B19">
-        <v>35.53</v>
+        <v>33.53</v>
       </c>
       <c r="C19">
         <v>3.06</v>
@@ -707,10 +717,10 @@
     </row>
     <row r="20" spans="8:8">
       <c r="A20">
-        <v>2.0210805E7</v>
+        <v>2.0210803E7</v>
       </c>
       <c r="B20">
-        <v>24.53</v>
+        <v>39.53</v>
       </c>
       <c r="C20">
         <v>3.06</v>
@@ -718,10 +728,10 @@
     </row>
     <row r="21" spans="8:8">
       <c r="A21">
-        <v>2.0210806E7</v>
+        <v>2.0210804E7</v>
       </c>
       <c r="B21">
-        <v>19.53</v>
+        <v>35.53</v>
       </c>
       <c r="C21">
         <v>3.06</v>
@@ -729,7 +739,7 @@
     </row>
     <row r="22" spans="8:8">
       <c r="A22">
-        <v>2.0210809E7</v>
+        <v>2.0210805E7</v>
       </c>
       <c r="B22">
         <v>24.53</v>
@@ -740,54 +750,54 @@
     </row>
     <row r="23" spans="8:8">
       <c r="A23">
-        <v>2.021081E7</v>
+        <v>2.0210806E7</v>
       </c>
       <c r="B23">
-        <v>52.64</v>
+        <v>19.53</v>
       </c>
       <c r="C23">
-        <v>3.95</v>
+        <v>3.06</v>
       </c>
     </row>
     <row r="24" spans="8:8">
       <c r="A24">
-        <v>2.0210811E7</v>
+        <v>2.0210809E7</v>
       </c>
       <c r="B24">
-        <v>51.59</v>
-      </c>
-      <c r="C24" s="1">
-        <v>4.0</v>
+        <v>24.53</v>
+      </c>
+      <c r="C24">
+        <v>3.06</v>
       </c>
     </row>
     <row r="25" spans="8:8">
       <c r="A25">
-        <v>2.0210812E7</v>
+        <v>2.021081E7</v>
       </c>
       <c r="B25">
-        <v>51.59</v>
-      </c>
-      <c r="C25" s="1">
-        <v>4.0</v>
+        <v>52.64</v>
+      </c>
+      <c r="C25">
+        <v>3.95</v>
       </c>
     </row>
     <row r="26" spans="8:8">
       <c r="A26">
-        <v>2.0210813E7</v>
+        <v>2.0210811E7</v>
       </c>
       <c r="B26">
-        <v>50.59</v>
-      </c>
-      <c r="C26" s="2">
+        <v>51.59</v>
+      </c>
+      <c r="C26" s="3">
         <v>4.0</v>
       </c>
     </row>
     <row r="27" spans="8:8">
       <c r="A27">
-        <v>2.0210816E7</v>
+        <v>2.0210812E7</v>
       </c>
       <c r="B27">
-        <v>49.59</v>
+        <v>51.59</v>
       </c>
       <c r="C27" s="3">
         <v>4.0</v>
@@ -795,10 +805,10 @@
     </row>
     <row r="28" spans="8:8">
       <c r="A28">
-        <v>2.0210817E7</v>
+        <v>2.0210813E7</v>
       </c>
       <c r="B28">
-        <v>45.59</v>
+        <v>50.59</v>
       </c>
       <c r="C28" s="4">
         <v>4.0</v>
@@ -806,32 +816,32 @@
     </row>
     <row r="29" spans="8:8">
       <c r="A29">
-        <v>2.0210818E7</v>
+        <v>2.0210816E7</v>
       </c>
       <c r="B29">
-        <v>45.59</v>
-      </c>
-      <c r="C29" s="4">
+        <v>49.59</v>
+      </c>
+      <c r="C29" s="5">
         <v>4.0</v>
       </c>
     </row>
     <row r="30" spans="8:8">
       <c r="A30">
-        <v>2.0210819E7</v>
+        <v>2.0210817E7</v>
       </c>
       <c r="B30">
-        <v>39.59</v>
-      </c>
-      <c r="C30" s="5">
+        <v>45.59</v>
+      </c>
+      <c r="C30" s="6">
         <v>4.0</v>
       </c>
     </row>
     <row r="31" spans="8:8">
       <c r="A31">
-        <v>2.021082E7</v>
+        <v>2.0210818E7</v>
       </c>
       <c r="B31">
-        <v>42.59</v>
+        <v>45.59</v>
       </c>
       <c r="C31" s="6">
         <v>4.0</v>
@@ -839,10 +849,10 @@
     </row>
     <row r="32" spans="8:8">
       <c r="A32">
-        <v>2.0210823E7</v>
+        <v>2.0210819E7</v>
       </c>
       <c r="B32">
-        <v>43.59</v>
+        <v>39.59</v>
       </c>
       <c r="C32" s="7">
         <v>4.0</v>
@@ -850,54 +860,54 @@
     </row>
     <row r="33" spans="8:8">
       <c r="A33">
-        <v>2.0210824E7</v>
+        <v>2.021082E7</v>
       </c>
       <c r="B33">
-        <v>43.59</v>
-      </c>
-      <c r="C33" s="7">
+        <v>42.59</v>
+      </c>
+      <c r="C33" s="8">
         <v>4.0</v>
       </c>
     </row>
     <row r="34" spans="8:8">
       <c r="A34">
-        <v>2.0210825E7</v>
+        <v>2.0210823E7</v>
       </c>
       <c r="B34">
-        <v>45.09</v>
-      </c>
-      <c r="C34" s="8">
-        <v>4.5</v>
+        <v>43.59</v>
+      </c>
+      <c r="C34" s="9">
+        <v>4.0</v>
       </c>
     </row>
     <row r="35" spans="8:8">
       <c r="A35">
-        <v>2.0210826E7</v>
+        <v>2.0210824E7</v>
       </c>
       <c r="B35">
-        <v>40.09</v>
-      </c>
-      <c r="C35" s="8">
-        <v>4.5</v>
+        <v>43.59</v>
+      </c>
+      <c r="C35" s="9">
+        <v>4.0</v>
       </c>
     </row>
     <row r="36" spans="8:8">
       <c r="A36">
-        <v>2.0210827E7</v>
+        <v>2.0210825E7</v>
       </c>
       <c r="B36">
-        <v>36.09</v>
-      </c>
-      <c r="C36" s="9">
+        <v>45.09</v>
+      </c>
+      <c r="C36" s="10">
         <v>4.5</v>
       </c>
     </row>
     <row r="37" spans="8:8">
       <c r="A37">
-        <v>2.021083E7</v>
+        <v>2.0210826E7</v>
       </c>
       <c r="B37">
-        <v>46.09</v>
+        <v>40.09</v>
       </c>
       <c r="C37" s="10">
         <v>4.5</v>
@@ -905,10 +915,10 @@
     </row>
     <row r="38" spans="8:8">
       <c r="A38">
-        <v>2.0210831E7</v>
+        <v>2.0210827E7</v>
       </c>
       <c r="B38">
-        <v>44.09</v>
+        <v>36.09</v>
       </c>
       <c r="C38" s="11">
         <v>4.5</v>
@@ -916,10 +926,10 @@
     </row>
     <row r="39" spans="8:8">
       <c r="A39">
-        <v>2.0210901E7</v>
+        <v>2.021083E7</v>
       </c>
       <c r="B39">
-        <v>52.09</v>
+        <v>46.09</v>
       </c>
       <c r="C39" s="12">
         <v>4.5</v>
@@ -927,10 +937,10 @@
     </row>
     <row r="40" spans="8:8">
       <c r="A40">
-        <v>2.0210902E7</v>
+        <v>2.0210831E7</v>
       </c>
       <c r="B40">
-        <v>50.09</v>
+        <v>44.09</v>
       </c>
       <c r="C40" s="13">
         <v>4.5</v>
@@ -938,10 +948,10 @@
     </row>
     <row r="41" spans="8:8">
       <c r="A41">
-        <v>2.0210903E7</v>
+        <v>2.0210901E7</v>
       </c>
       <c r="B41">
-        <v>60.09</v>
+        <v>52.09</v>
       </c>
       <c r="C41" s="14">
         <v>4.5</v>
@@ -949,10 +959,10 @@
     </row>
     <row r="42" spans="8:8">
       <c r="A42">
-        <v>2.0210906E7</v>
+        <v>2.0210902E7</v>
       </c>
       <c r="B42">
-        <v>57.09</v>
+        <v>50.09</v>
       </c>
       <c r="C42" s="15">
         <v>4.5</v>
@@ -960,10 +970,10 @@
     </row>
     <row r="43" spans="8:8">
       <c r="A43">
-        <v>2.0210907E7</v>
+        <v>2.0210903E7</v>
       </c>
       <c r="B43">
-        <v>56.09</v>
+        <v>60.09</v>
       </c>
       <c r="C43" s="16">
         <v>4.5</v>
@@ -971,10 +981,10 @@
     </row>
     <row r="44" spans="8:8">
       <c r="A44">
-        <v>2.0210908E7</v>
+        <v>2.0210906E7</v>
       </c>
       <c r="B44">
-        <v>79.09</v>
+        <v>57.09</v>
       </c>
       <c r="C44" s="17">
         <v>4.5</v>
@@ -982,43 +992,43 @@
     </row>
     <row r="45" spans="8:8">
       <c r="A45">
-        <v>2.0210909E7</v>
+        <v>2.0210907E7</v>
       </c>
       <c r="B45">
-        <v>72.24</v>
-      </c>
-      <c r="C45">
-        <v>5.35</v>
+        <v>56.09</v>
+      </c>
+      <c r="C45" s="18">
+        <v>4.5</v>
       </c>
     </row>
     <row r="46" spans="8:8">
       <c r="A46">
-        <v>2.021091E7</v>
+        <v>2.0210908E7</v>
       </c>
       <c r="B46">
-        <v>69.12</v>
-      </c>
-      <c r="C46">
-        <v>5.47</v>
+        <v>79.09</v>
+      </c>
+      <c r="C46" s="19">
+        <v>4.5</v>
       </c>
     </row>
     <row r="47" spans="8:8">
       <c r="A47">
-        <v>2.0210913E7</v>
+        <v>2.0210909E7</v>
       </c>
       <c r="B47">
-        <v>90.12</v>
+        <v>72.24</v>
       </c>
       <c r="C47">
-        <v>5.47</v>
+        <v>5.35</v>
       </c>
     </row>
     <row r="48" spans="8:8">
       <c r="A48">
-        <v>2.0210914E7</v>
+        <v>2.021091E7</v>
       </c>
       <c r="B48">
-        <v>75.12</v>
+        <v>69.12</v>
       </c>
       <c r="C48">
         <v>5.47</v>
@@ -1026,10 +1036,10 @@
     </row>
     <row r="49" spans="8:8">
       <c r="A49">
-        <v>2.0210915E7</v>
+        <v>2.0210913E7</v>
       </c>
       <c r="B49">
-        <v>81.12</v>
+        <v>90.12</v>
       </c>
       <c r="C49">
         <v>5.47</v>
@@ -1037,35 +1047,123 @@
     </row>
     <row r="50" spans="8:8">
       <c r="A50">
-        <v>2.0210916E7</v>
+        <v>2.0210914E7</v>
       </c>
       <c r="B50">
-        <v>63.79</v>
-      </c>
-      <c r="C50" s="18">
-        <v>5.8</v>
+        <v>75.12</v>
+      </c>
+      <c r="C50">
+        <v>5.47</v>
       </c>
     </row>
     <row r="51" spans="8:8">
       <c r="A51">
-        <v>2.0210917E7</v>
+        <v>2.0210915E7</v>
       </c>
       <c r="B51">
-        <v>55.47</v>
+        <v>81.12</v>
       </c>
       <c r="C51">
-        <v>6.12</v>
+        <v>5.47</v>
       </c>
     </row>
     <row r="52" spans="8:8">
       <c r="A52">
+        <v>2.0210916E7</v>
+      </c>
+      <c r="B52">
+        <v>63.79</v>
+      </c>
+      <c r="C52" s="20">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="53" spans="8:8">
+      <c r="A53">
+        <v>2.0210917E7</v>
+      </c>
+      <c r="B53">
+        <v>55.47</v>
+      </c>
+      <c r="C53">
+        <v>6.12</v>
+      </c>
+    </row>
+    <row r="54" spans="8:8">
+      <c r="A54">
         <v>2.0210922E7</v>
       </c>
-      <c r="B52">
+      <c r="B54">
         <v>55.15</v>
       </c>
-      <c r="C52">
+      <c r="C54">
         <v>6.44</v>
+      </c>
+    </row>
+    <row r="55" spans="8:8">
+      <c r="A55">
+        <v>2.0210923E7</v>
+      </c>
+      <c r="B55">
+        <v>53.08</v>
+      </c>
+      <c r="C55">
+        <v>6.51</v>
+      </c>
+    </row>
+    <row r="56" spans="8:8">
+      <c r="A56">
+        <v>2.0210924E7</v>
+      </c>
+      <c r="B56">
+        <v>40.08</v>
+      </c>
+      <c r="C56">
+        <v>6.51</v>
+      </c>
+    </row>
+    <row r="57" spans="8:8">
+      <c r="A57">
+        <v>2.0210927E7</v>
+      </c>
+      <c r="B57">
+        <v>62.08</v>
+      </c>
+      <c r="C57">
+        <v>6.51</v>
+      </c>
+    </row>
+    <row r="58" spans="8:8">
+      <c r="A58">
+        <v>2.0210928E7</v>
+      </c>
+      <c r="B58">
+        <v>46.08</v>
+      </c>
+      <c r="C58">
+        <v>6.51</v>
+      </c>
+    </row>
+    <row r="59" spans="8:8">
+      <c r="A59">
+        <v>2.0210929E7</v>
+      </c>
+      <c r="B59">
+        <v>21.08</v>
+      </c>
+      <c r="C59">
+        <v>6.51</v>
+      </c>
+    </row>
+    <row r="60" spans="8:8">
+      <c r="A60">
+        <v>2.021093E7</v>
+      </c>
+      <c r="B60">
+        <v>23.08</v>
+      </c>
+      <c r="C60">
+        <v>6.51</v>
       </c>
     </row>
   </sheetData>
